--- a/Source/Excel/rule.xlsx
+++ b/Source/Excel/rule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0DE42-A31A-4ACC-9BB8-81C41D9E42B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A1C6EF-DEFE-4665-ADAF-21F5FDB6930F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -367,7 +371,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
